--- a/Planilhas de análise/Dados_exp_CPA_retirando.xlsx
+++ b/Planilhas de análise/Dados_exp_CPA_retirando.xlsx
@@ -28,12 +28,15 @@
     <sheet name="Plan9" sheetId="9" r:id="rId14"/>
     <sheet name="Plan10" sheetId="10" r:id="rId15"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId16"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="178">
   <si>
     <t>An evaluation of the performance of the Cubic-Plus-Association equation of state in mixtures of non-polar, polar and associating compounds: Towards a single model for non-polymeric systems</t>
   </si>
@@ -2978,6 +2981,33 @@
   </si>
   <si>
     <t>Use of monomer fraction data in the parametrization of association theories</t>
+  </si>
+  <si>
+    <t>Monomer fraction methanol as a function of overall mole fraction methanol in the mixture methanol–n-hexane. The experimental results from this work are at 23.3 °C, as are the predictions for simplified PC-SAFT and CPA. Martinez [7] data are at 30 °C and that of Asprion et al. [8] at 25.1 °C. There is reasonable agreement among the various sets of data. The CPA 2B and 3B results bracket the data while the simplified PC-SAFT results underestimate the monomer fraction. Pure component parameters and their sources are reported in Table 6 and Table 7.</t>
+  </si>
+  <si>
+    <t>Monomer fraction ethanol as a function of overall mole fraction ethanol in the mixture ethanol–n-hexane. The experimental results from this work are at 23.3 °C, as are the predictions for simplified PC-SAFT and CPA. Asprion et al. [8] data are at 298 K. In this case the CPA 2B scheme and PC-SAFT give results in best agreement with the data, although there is some disagreement between the two sets of data. Pure component parameters and their sources are reported in Table 6 and Table 7.</t>
+  </si>
+  <si>
+    <t>Monomer fraction 1-propanol as a function of overall mole fraction 1-propanol in the mixture 1-propanol–n-hexane. The experimental results are at 23.3 °C, as are the predictions for simplified PC-SAFT and CPA. The CPA 2B-scheme is in good agreement with the measured data. Pure component parameters and their sources are reported in Table 6 and Table 7.</t>
+  </si>
+  <si>
+    <t>Monomer fraction 1-propanol as a function of overall mole fraction 1-propanol in the mixture 1-propanol–n-hexane. The CPA (with 1-propanol as a 2B molecule) predictions are shown at the three temperatures for which Asprion et al. [8] obtained data (10.1, 24.9 and 40 °C). For comparison the data from Fig. 5 obtained in this work at 23.3 °C are also shown. The CPA predictions agree very well with the measured data, quantitatively predicting the effect of temperature. There is also good agreement between the data sets. Pure component parameters and their sources are reported in Table 6.</t>
+  </si>
+  <si>
+    <t>Monomer fraction 1-pentanol as a function of overall mole fraction 1-pentanol in the mixture 1-pentanol–n-hexane. The experimental results from this work are at 23.3 °C, as are the predictions for simplified PC-SAFT and CPA. Asprion et al. [8] data are at 25.1 °C and Gupta and Brinkley [9] data at 25 °C. There is some disagreement among the three data sets and all models overpredict the monomer fraction with the CPA 2B scheme performing best. Pure component parameters and their sources are reported in Table 6 and Table 7.</t>
+  </si>
+  <si>
+    <t>Monomer fraction 1-hexanol as a function of overall mole fraction 1-hexanol in the mixture 1-hexanol–n-hexane. The results are shown for CPA with 1-hexanol as a 2B molecule at the temperatures for which Asprion et al. [8] (25.1 and 40.2 °C) and Gupta and Brinkley [9] (25 and 35 °C) obtained their experimental data. In general the agreement is good. There is some scatter in the data at low concentrations. Pure component parameters and their sources are reported in Table 6.</t>
+  </si>
+  <si>
+    <t>Monomer fraction ethanol as a function of overall mole fraction ethanol in the mixture ethanol–n-heptane. The experimental results from this work are at 23.3 °C, as are the predictions for simplified PC-SAFT and CPA. There is disagreement among the model predictions although simplified PC-SAFT is in closest agreement with the measured data. Pure component parameters and their sources are reported in Table 6 and Table 7.</t>
+  </si>
+  <si>
+    <t>Monomer fraction 1-propanol as a function of overall mole fraction 1-propanol in the mixture 1-propanol–n-heptane. The experimental results from this work are at 23.3 °C, as are the predictions for simplified PC-SAFT and CPA. Lien [10] data are at 25 °C. There is reasonable agreement between the data sets, the CPA 2B scheme and the simplified PC-SAFT predictions. The agreement between the CPA 2B scheme and the Lien data is excellent. Pure component parameters and their sources are reported in Table 6 and Table 7).</t>
+  </si>
+  <si>
+    <t>Monomer fraction 1-propanol as a function of overall mole fraction 1-propanol in the mixture 1-propanol–n-heptane. The CPA (with 1-propanol as a 2B molecule) predictions are shown at three temperatures for which Lien [10] obtained data (15, 35 and 55 °C). The agreement between the CPA predictions and the measured data is excellent. The effect of temperature is also captured quantitatively. Pure component parameters and their sources are reported in Table 6.</t>
   </si>
 </sst>
 </file>
@@ -4396,15 +4426,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>507091</xdr:colOff>
+      <xdr:colOff>575126</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4415,6 +4445,16 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4428,7 +4468,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="612321" y="190500"/>
+          <a:off x="680356" y="176893"/>
           <a:ext cx="4181020" cy="3360964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4470,6 +4510,16 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4530,6 +4580,16 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4585,6 +4645,16 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4640,6 +4710,16 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4683,8 +4763,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>557893</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>42810</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>56418</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4695,6 +4775,16 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4710,6 +4800,556 @@
         <a:xfrm>
           <a:off x="612320" y="4803320"/>
           <a:ext cx="4231823" cy="3104419"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5" descr="Monomer fraction methanol as a function of overall mole fraction methanol in the ..."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5510893" y="5007429"/>
+          <a:ext cx="4286250" cy="2979964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>176124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10" descr="Monomer fraction ethanol as a function of overall mole fraction ethanol in the ..."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10409464" y="5007428"/>
+          <a:ext cx="4286250" cy="3033625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>23131</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11" descr="Monomer fraction 1-propanol as a function of overall mole fraction 1-propanol in ..."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="612321" y="9239250"/>
+          <a:ext cx="4309381" cy="3333750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12" descr="Monomer fraction 1-propanol as a function of overall mole fraction 1-propanol in ..."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5510893" y="9239250"/>
+          <a:ext cx="4272643" cy="3347357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>612320</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>599851</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagem 13" descr="Monomer fraction 1-pentanol as a function of overall mole fraction 1-pentanol in ..."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10409463" y="9239250"/>
+          <a:ext cx="4273781" cy="3401786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601194</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14" descr="Monomer fraction 1-hexanol as a function of overall mole fraction 1-hexanol in ..."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="612321" y="13865679"/>
+          <a:ext cx="4275123" cy="3197678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>585108</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>151038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagem 15" descr="Monomer fraction 1-hexanol as a function of overall mole fraction 1-hexanol in ..."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5510893" y="13865679"/>
+          <a:ext cx="4259036" cy="3199038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>157543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagem 16" descr="Monomer fraction ethanol as a function of overall mole fraction ethanol in the ..."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10409464" y="13865679"/>
+          <a:ext cx="4272643" cy="3205543"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>583640</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagem 17" descr="Monomer fraction 1-propanol as a function of overall mole fraction 1-propanol in ..."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="612321" y="18247179"/>
+          <a:ext cx="4257569" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>129655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18" descr="Monomer fraction 1-propanol as a function of overall mole fraction 1-propanol in ..."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5510893" y="18247179"/>
+          <a:ext cx="4286250" cy="3177655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5745,6 +6385,828 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Output"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="18">
+          <cell r="C18">
+            <v>280</v>
+          </cell>
+          <cell r="E18">
+            <v>2.4840900000000003E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>281</v>
+          </cell>
+          <cell r="E19">
+            <v>2.65881E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>282</v>
+          </cell>
+          <cell r="E20">
+            <v>2.84424E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>283</v>
+          </cell>
+          <cell r="E21">
+            <v>3.0409000000000002E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>284</v>
+          </cell>
+          <cell r="E22">
+            <v>3.2493599999999997E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>285</v>
+          </cell>
+          <cell r="E23">
+            <v>3.4702299999999998E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>286</v>
+          </cell>
+          <cell r="E24">
+            <v>3.7041400000000002E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>287</v>
+          </cell>
+          <cell r="E25">
+            <v>3.9516900000000001E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>288</v>
+          </cell>
+          <cell r="E26">
+            <v>4.2135699999999998E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>289</v>
+          </cell>
+          <cell r="E27">
+            <v>4.4904699999999999E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>290</v>
+          </cell>
+          <cell r="E28">
+            <v>4.78308E-2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>291</v>
+          </cell>
+          <cell r="E29">
+            <v>5.0921799999999996E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>292</v>
+          </cell>
+          <cell r="E30">
+            <v>5.4184999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>293</v>
+          </cell>
+          <cell r="E31">
+            <v>5.7628800000000001E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>294</v>
+          </cell>
+          <cell r="E32">
+            <v>6.1260899999999993E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>295</v>
+          </cell>
+          <cell r="E33">
+            <v>6.5090099999999998E-2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>296</v>
+          </cell>
+          <cell r="E34">
+            <v>6.9125099999999995E-2</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>297</v>
+          </cell>
+          <cell r="E35">
+            <v>7.337500000000001E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>298</v>
+          </cell>
+          <cell r="E36">
+            <v>7.7849299999999996E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>299</v>
+          </cell>
+          <cell r="E37">
+            <v>8.2557600000000009E-2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>300</v>
+          </cell>
+          <cell r="E38">
+            <v>8.7509999999999991E-2</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>301</v>
+          </cell>
+          <cell r="E39">
+            <v>9.2716699999999999E-2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>302</v>
+          </cell>
+          <cell r="E40">
+            <v>9.8188499999999998E-2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>303</v>
+          </cell>
+          <cell r="E41">
+            <v>0.10393599999999999</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>304</v>
+          </cell>
+          <cell r="E42">
+            <v>0.109971</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>305</v>
+          </cell>
+          <cell r="E43">
+            <v>0.11630599999999999</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>306</v>
+          </cell>
+          <cell r="E44">
+            <v>0.12295099999999999</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>307</v>
+          </cell>
+          <cell r="E45">
+            <v>0.12991900000000001</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>308</v>
+          </cell>
+          <cell r="E46">
+            <v>0.13722400000000001</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>309</v>
+          </cell>
+          <cell r="E47">
+            <v>0.14487800000000001</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>310</v>
+          </cell>
+          <cell r="E48">
+            <v>0.152894</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>311</v>
+          </cell>
+          <cell r="E49">
+            <v>0.16128699999999999</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>312</v>
+          </cell>
+          <cell r="E50">
+            <v>0.17007000000000003</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>313</v>
+          </cell>
+          <cell r="E51">
+            <v>0.17925899999999997</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>314</v>
+          </cell>
+          <cell r="E52">
+            <v>0.18886700000000001</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>315</v>
+          </cell>
+          <cell r="E53">
+            <v>0.19891200000000001</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>316</v>
+          </cell>
+          <cell r="E54">
+            <v>0.20940700000000001</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>317</v>
+          </cell>
+          <cell r="E55">
+            <v>0.22036899999999998</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>318</v>
+          </cell>
+          <cell r="E56">
+            <v>0.23181599999999999</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>319</v>
+          </cell>
+          <cell r="E57">
+            <v>0.24376300000000001</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>320</v>
+          </cell>
+          <cell r="E58">
+            <v>0.25622900000000004</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>321</v>
+          </cell>
+          <cell r="E59">
+            <v>0.26922999999999997</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>322</v>
+          </cell>
+          <cell r="E60">
+            <v>0.28278500000000001</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>323</v>
+          </cell>
+          <cell r="E61">
+            <v>0.29691299999999998</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>324</v>
+          </cell>
+          <cell r="E62">
+            <v>0.31163299999999999</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>325</v>
+          </cell>
+          <cell r="E63">
+            <v>0.32696399999999998</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>326</v>
+          </cell>
+          <cell r="E64">
+            <v>0.34292600000000001</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>327</v>
+          </cell>
+          <cell r="E65">
+            <v>0.359539</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>328</v>
+          </cell>
+          <cell r="E66">
+            <v>0.37682499999999997</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67">
+            <v>329</v>
+          </cell>
+          <cell r="E67">
+            <v>0.39480300000000002</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68">
+            <v>330</v>
+          </cell>
+          <cell r="E68">
+            <v>0.41349600000000003</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>331</v>
+          </cell>
+          <cell r="E69">
+            <v>0.43292700000000006</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>332</v>
+          </cell>
+          <cell r="E70">
+            <v>0.45311599999999996</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>333</v>
+          </cell>
+          <cell r="E71">
+            <v>0.47408900000000004</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72">
+            <v>334</v>
+          </cell>
+          <cell r="E72">
+            <v>0.49586599999999997</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73">
+            <v>335</v>
+          </cell>
+          <cell r="E73">
+            <v>0.51847399999999999</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74">
+            <v>336</v>
+          </cell>
+          <cell r="E74">
+            <v>0.54193500000000006</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75">
+            <v>337</v>
+          </cell>
+          <cell r="E75">
+            <v>0.56627499999999997</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76">
+            <v>338</v>
+          </cell>
+          <cell r="E76">
+            <v>0.59151900000000002</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77">
+            <v>339</v>
+          </cell>
+          <cell r="E77">
+            <v>0.61769200000000002</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78">
+            <v>340</v>
+          </cell>
+          <cell r="E78">
+            <v>0.64482099999999998</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79">
+            <v>341</v>
+          </cell>
+          <cell r="E79">
+            <v>0.67293199999999997</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80">
+            <v>342</v>
+          </cell>
+          <cell r="E80">
+            <v>0.70205299999999993</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="C81">
+            <v>343</v>
+          </cell>
+          <cell r="E81">
+            <v>0.73221000000000003</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82">
+            <v>344</v>
+          </cell>
+          <cell r="E82">
+            <v>0.76343100000000008</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="C83">
+            <v>345</v>
+          </cell>
+          <cell r="E83">
+            <v>0.79574600000000006</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="C84">
+            <v>346</v>
+          </cell>
+          <cell r="E84">
+            <v>0.82918199999999997</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="C85">
+            <v>347</v>
+          </cell>
+          <cell r="E85">
+            <v>0.86376900000000001</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86">
+            <v>348</v>
+          </cell>
+          <cell r="E86">
+            <v>0.89953700000000003</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="C87">
+            <v>349</v>
+          </cell>
+          <cell r="E87">
+            <v>0.93651600000000002</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="C88">
+            <v>350</v>
+          </cell>
+          <cell r="E88">
+            <v>0.97473699999999996</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="C89">
+            <v>351</v>
+          </cell>
+          <cell r="E89">
+            <v>1.01423</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="C90">
+            <v>352</v>
+          </cell>
+          <cell r="E90">
+            <v>1.0550299999999999</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="C91">
+            <v>353</v>
+          </cell>
+          <cell r="E91">
+            <v>1.0971599999999999</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="C92">
+            <v>354</v>
+          </cell>
+          <cell r="E92">
+            <v>1.1406699999999999</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="C93">
+            <v>355</v>
+          </cell>
+          <cell r="E93">
+            <v>1.18557</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="C94">
+            <v>356</v>
+          </cell>
+          <cell r="E94">
+            <v>1.2319100000000001</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="C95">
+            <v>357</v>
+          </cell>
+          <cell r="E95">
+            <v>1.27972</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="C96">
+            <v>358</v>
+          </cell>
+          <cell r="E96">
+            <v>1.3290299999999999</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="C97">
+            <v>359</v>
+          </cell>
+          <cell r="E97">
+            <v>1.37988</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="C98">
+            <v>360</v>
+          </cell>
+          <cell r="E98">
+            <v>1.4322999999999999</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="C99">
+            <v>361</v>
+          </cell>
+          <cell r="E99">
+            <v>1.4863300000000002</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="C100">
+            <v>362</v>
+          </cell>
+          <cell r="E100">
+            <v>1.5419999999999998</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="C101">
+            <v>363</v>
+          </cell>
+          <cell r="E101">
+            <v>1.5993600000000001</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="C102">
+            <v>364</v>
+          </cell>
+          <cell r="E102">
+            <v>1.6584299999999998</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="C103">
+            <v>365</v>
+          </cell>
+          <cell r="E103">
+            <v>1.7192599999999998</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="C104">
+            <v>366</v>
+          </cell>
+          <cell r="E104">
+            <v>1.7818799999999999</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="C105">
+            <v>367</v>
+          </cell>
+          <cell r="E105">
+            <v>1.84633</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="C106">
+            <v>368</v>
+          </cell>
+          <cell r="E106">
+            <v>1.9126400000000001</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="C107">
+            <v>369</v>
+          </cell>
+          <cell r="E107">
+            <v>1.9808699999999999</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="C108">
+            <v>370</v>
+          </cell>
+          <cell r="E108">
+            <v>2.05104</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="C109">
+            <v>371</v>
+          </cell>
+          <cell r="E109">
+            <v>2.1231999999999998</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="C110">
+            <v>372</v>
+          </cell>
+          <cell r="E110">
+            <v>2.19739</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="C111">
+            <v>373</v>
+          </cell>
+          <cell r="E111">
+            <v>2.2736399999999999</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="C112">
+            <v>374</v>
+          </cell>
+          <cell r="E112">
+            <v>2.3520099999999999</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="C113">
+            <v>375</v>
+          </cell>
+          <cell r="E113">
+            <v>2.4325200000000002</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="C114">
+            <v>376</v>
+          </cell>
+          <cell r="E114">
+            <v>2.5152199999999998</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="C115">
+            <v>377</v>
+          </cell>
+          <cell r="E115">
+            <v>2.6001600000000002</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="C116">
+            <v>378</v>
+          </cell>
+          <cell r="E116">
+            <v>2.68737</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="C117">
+            <v>379</v>
+          </cell>
+          <cell r="E117">
+            <v>2.7768999999999999</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="C118">
+            <v>380</v>
+          </cell>
+          <cell r="E118">
+            <v>2.8687900000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -6068,8 +7530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X78"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42:P46"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7591,7 +9053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X71"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
@@ -8957,10 +10419,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X78"/>
+  <dimension ref="B1:X115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9078,14 +10540,18 @@
       <c r="W23" s="22"/>
       <c r="X23" s="22"/>
     </row>
+    <row r="24" spans="2:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J24" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:24" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26"/>
-      <c r="J26" s="14" t="s">
-        <v>168</v>
-      </c>
+      <c r="J26"/>
+      <c r="R26"/>
     </row>
     <row r="42" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="22" t="s">
@@ -9097,14 +10563,18 @@
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
-      <c r="J42" s="22"/>
+      <c r="J42" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
-      <c r="R42" s="22"/>
+      <c r="R42" s="22" t="s">
+        <v>170</v>
+      </c>
       <c r="S42" s="22"/>
       <c r="T42" s="22"/>
       <c r="U42" s="22"/>
@@ -9206,24 +10676,42 @@
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48"/>
+      <c r="J48"/>
+      <c r="R48"/>
     </row>
     <row r="55" spans="10:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="J55" s="14"/>
     </row>
-    <row r="65" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="22"/>
+    <row r="65" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
       <c r="H65" s="22"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J65" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="R65" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="S65" s="22"/>
+      <c r="T65" s="22"/>
+      <c r="U65" s="22"/>
+      <c r="V65" s="22"/>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
@@ -9231,12 +10719,22 @@
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="22"/>
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
@@ -9244,12 +10742,22 @@
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="22"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="22"/>
+      <c r="V67" s="22"/>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
@@ -9257,12 +10765,22 @@
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
@@ -9270,68 +10788,288 @@
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
       <c r="L70" s="19"/>
       <c r="M70" s="19"/>
     </row>
-    <row r="71" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B71" s="14"/>
-      <c r="J71" s="19"/>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B71"/>
+      <c r="J71"/>
       <c r="K71" s="19"/>
       <c r="L71" s="19"/>
       <c r="M71" s="19"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="R71"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J72" s="20"/>
       <c r="K72" s="21"/>
       <c r="L72" s="21"/>
       <c r="M72" s="21"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
       <c r="L73" s="19"/>
       <c r="M73" s="19"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
       <c r="L74" s="19"/>
       <c r="M74" s="19"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J75" s="20"/>
       <c r="K75" s="19"/>
       <c r="L75" s="19"/>
       <c r="M75" s="19"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J76" s="19"/>
       <c r="K76" s="19"/>
       <c r="L76" s="19"/>
       <c r="M76" s="19"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J77" s="19"/>
       <c r="K77" s="19"/>
       <c r="L77" s="19"/>
       <c r="M77" s="19"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J78" s="20"/>
       <c r="K78" s="19"/>
       <c r="L78" s="19"/>
       <c r="M78" s="19"/>
     </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B88" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="J88" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
+      <c r="R88" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="S88" s="22"/>
+      <c r="T88" s="22"/>
+      <c r="U88" s="22"/>
+      <c r="V88" s="22"/>
+      <c r="W88" s="22"/>
+      <c r="X88" s="22"/>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
+      <c r="R89" s="22"/>
+      <c r="S89" s="22"/>
+      <c r="T89" s="22"/>
+      <c r="U89" s="22"/>
+      <c r="V89" s="22"/>
+      <c r="W89" s="22"/>
+      <c r="X89" s="22"/>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
+      <c r="R90" s="22"/>
+      <c r="S90" s="22"/>
+      <c r="T90" s="22"/>
+      <c r="U90" s="22"/>
+      <c r="V90" s="22"/>
+      <c r="W90" s="22"/>
+      <c r="X90" s="22"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="22"/>
+      <c r="R91" s="22"/>
+      <c r="S91" s="22"/>
+      <c r="T91" s="22"/>
+      <c r="U91" s="22"/>
+      <c r="V91" s="22"/>
+      <c r="W91" s="22"/>
+      <c r="X91" s="22"/>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="22"/>
+      <c r="R92" s="22"/>
+      <c r="S92" s="22"/>
+      <c r="T92" s="22"/>
+      <c r="U92" s="22"/>
+      <c r="V92" s="22"/>
+      <c r="W92" s="22"/>
+      <c r="X92" s="22"/>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B94"/>
+      <c r="J94"/>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B111" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="J111" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="22"/>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="22"/>
+      <c r="P112" s="22"/>
+    </row>
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="22"/>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="22"/>
+      <c r="P114" s="22"/>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
     <mergeCell ref="B65:H69"/>
     <mergeCell ref="B20:H23"/>
     <mergeCell ref="J20:P23"/>
@@ -9339,6 +11077,13 @@
     <mergeCell ref="B42:H46"/>
     <mergeCell ref="J42:P46"/>
     <mergeCell ref="R42:X46"/>
+    <mergeCell ref="J65:P69"/>
+    <mergeCell ref="R65:X69"/>
+    <mergeCell ref="B88:H92"/>
+    <mergeCell ref="J88:P92"/>
+    <mergeCell ref="R88:X92"/>
+    <mergeCell ref="B111:H115"/>
+    <mergeCell ref="J111:P115"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -9350,7 +11095,7 @@
   <dimension ref="B2:X71"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9678,8 +11423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B20:X71"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10014,7 +11759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE98"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A97" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
@@ -13206,8 +14951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B29:AB67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13529,8 +15274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B21:U109"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W62" sqref="W62"/>
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X69" sqref="X69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
